--- a/AAII_Financials/Yearly/SAFO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAFO_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/SAFO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SAFO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>SAFO</t>
   </si>
@@ -1017,14 +1017,14 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-900</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
